--- a/data/IBO_Database_Ilse.xlsx
+++ b/data/IBO_Database_Ilse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\web\online-spider-chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A976F80-4031-407E-B185-E5BD2D918155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58F4554-FEB5-44C2-81AC-06AE1FE6C835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{EB6681C3-9B67-4B09-865B-6CFBC2C98D56}"/>
   </bookViews>
@@ -754,12 +754,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="25.7109375" style="8" customWidth="1"/>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
